--- a/simulation conditions.xlsx
+++ b/simulation conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Density secr 4.6\knitr\secr-simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6044B4-356E-42A5-A680-BC04DC26CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208333FF-FAA2-46B8-BEA9-236023249D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="930" windowWidth="23790" windowHeight="14115" xr2:uid="{452CED92-CAEE-478E-9910-136FC76D0822}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23790" windowHeight="14115" xr2:uid="{452CED92-CAEE-478E-9910-136FC76D0822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>CLO</t>
   </si>
@@ -138,12 +138,6 @@
     <t>5σ</t>
   </si>
   <si>
-    <t>MOQ</t>
-  </si>
-  <si>
-    <t>DEY</t>
-  </si>
-  <si>
     <t>7x7 binary proximity</t>
   </si>
   <si>
@@ -391,6 +385,18 @@
   </si>
   <si>
     <t>E(m)</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>SARE-MOQ</t>
+  </si>
+  <si>
+    <t>SARE-DEY</t>
   </si>
 </sst>
 </file>
@@ -793,541 +799,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F451CA-9C83-4C92-BDD5-4DEE86F08B32}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="13" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6">
+        <v>64</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>110</v>
+      </c>
+      <c r="M7">
+        <v>78</v>
+      </c>
+      <c r="N7">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7">
+        <v>32</v>
+      </c>
+      <c r="R7">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <v>110</v>
+      </c>
+      <c r="M8">
+        <v>86</v>
+      </c>
+      <c r="N8">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8">
+        <v>64</v>
+      </c>
+      <c r="R8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="S8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>110</v>
+      </c>
+      <c r="M9">
+        <v>86</v>
+      </c>
+      <c r="N9">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9">
+        <v>32</v>
+      </c>
+      <c r="R9">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>110</v>
+      </c>
+      <c r="M10">
+        <v>86</v>
+      </c>
+      <c r="N10">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10">
+        <v>32</v>
+      </c>
+      <c r="R10">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12">
+        <v>64</v>
+      </c>
+      <c r="R12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>0.15</v>
+      </c>
+      <c r="H13">
+        <v>1.5</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13">
+        <v>131</v>
+      </c>
+      <c r="M13">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13">
+        <v>64</v>
+      </c>
+      <c r="R13">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>1.5</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="Q14">
+        <v>64</v>
+      </c>
+      <c r="R14">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
         <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>2000</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5">
-        <v>64</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6">
-        <v>0.1</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>110</v>
-      </c>
-      <c r="L6">
-        <v>78</v>
-      </c>
-      <c r="M6">
-        <v>49</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6">
-        <v>32</v>
-      </c>
-      <c r="Q6">
-        <v>0.70699999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7">
-        <v>0.1</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>110</v>
-      </c>
-      <c r="L7">
-        <v>86</v>
-      </c>
-      <c r="M7">
-        <v>55</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7">
-        <v>64</v>
-      </c>
-      <c r="Q7">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="R7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>0.1</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>110</v>
-      </c>
-      <c r="L8">
-        <v>86</v>
-      </c>
-      <c r="M8">
-        <v>55</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8">
-        <v>32</v>
-      </c>
-      <c r="Q8">
-        <v>0.70699999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <v>110</v>
-      </c>
-      <c r="L9">
-        <v>86</v>
-      </c>
-      <c r="M9">
-        <v>55</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9">
-        <v>32</v>
-      </c>
-      <c r="Q9">
-        <v>0.70699999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10">
-        <v>32</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11">
-        <v>64</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>0.15</v>
-      </c>
-      <c r="G12">
-        <v>1.5</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12">
-        <v>131</v>
-      </c>
-      <c r="L12">
-        <v>133</v>
-      </c>
-      <c r="N12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12">
-        <v>64</v>
-      </c>
-      <c r="Q12">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>1.5</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13">
-        <v>64</v>
-      </c>
-      <c r="Q13">
-        <v>0.63300000000000001</v>
       </c>
     </row>
   </sheetData>
